--- a/docs/table_of_metrics.xlsx
+++ b/docs/table_of_metrics.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EABA787-4C4F-434A-8C9C-7FEF61925B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>Problem</t>
   </si>
@@ -212,9 +211,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>R2s</t>
   </si>
   <si>
@@ -270,12 +266,84 @@
   </si>
   <si>
     <t>AE</t>
+  </si>
+  <si>
+    <t>GINI</t>
+  </si>
+  <si>
+    <t>Gini Coefficient</t>
+  </si>
+  <si>
+    <t>GINI_WIKI</t>
+  </si>
+  <si>
+    <t>Gini Coefficient in Wiki</t>
+  </si>
+  <si>
+    <t>PCD</t>
+  </si>
+  <si>
+    <t>Prediction of Change in Direction</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Entropy</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Cross Entropy</t>
+  </si>
+  <si>
+    <t>KLD</t>
+  </si>
+  <si>
+    <t>Kullback Leibler Divergence</t>
+  </si>
+  <si>
+    <t>JSD</t>
+  </si>
+  <si>
+    <t>Jensen Shannon Divergence</t>
+  </si>
+  <si>
+    <t>VAF</t>
+  </si>
+  <si>
+    <t>Variance Accounted For</t>
+  </si>
+  <si>
+    <t>RAE</t>
+  </si>
+  <si>
+    <t>Relative Absolute Error</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A10 Index</t>
+  </si>
+  <si>
+    <t>A20</t>
+  </si>
+  <si>
+    <t>A20 Index</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
+  </si>
+  <si>
+    <t>Normalized Root Mean Square Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -692,11 +760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection sqref="A1:E32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1021,10 +1089,10 @@
         <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>9</v>
@@ -1036,10 +1104,10 @@
         <v>63</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -1051,10 +1119,10 @@
         <v>64</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -1062,124 +1130,280 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="6">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="6">
-        <v>1</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
+        <v>23</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6">
+        <v>25</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6">
+        <v>28</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6">
+        <v>30</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6">
+        <v>31</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6">
+        <v>32</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6">
+        <v>33</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6">
         <v>2</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="8">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="8">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="6">
-        <v>4</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="6">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="6">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="6">
         <v>1</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="6">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="6">
         <v>2</v>
       </c>
     </row>
